--- a/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表_用户代表打分表.xlsx
+++ b/渔乐生活/受控文档/软件需求规格说明书/QDF打分表/PRD2018-G06-QFD打分表_用户代表打分表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yangcheng\ZUCC\教学相关\软件需求分析与设计\2018\QFD-feedback\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\abc\渔乐生活\受控文档\软件需求规格说明书\QDF打分表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FBF104A-8DB5-496C-973B-D627BC97F80B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FC4261-80E4-4517-9DB8-7C0F83A9C5F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13800" windowHeight="3996" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WBSData" sheetId="2" r:id="rId1"/>
@@ -1363,12 +1363,6 @@
   <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>注：优先级在0.75以上（含0.75）为高优先级，在0.2-0.75（含0.2）为中优先级，在0.2以下的为低优先级</t>
-  </si>
-  <si>
-    <t>表中数据统一采用1-9的数字进行填写:</t>
   </si>
   <si>
     <r>
@@ -1563,32 +1557,6 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>总价值</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">    ：为相对收益*相对权值+相对损失*相对权值的和    </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>价值%</t>
     </r>
     <r>
@@ -1703,13 +1671,24 @@
     <t>已将不需要填写的属性隐藏</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>注：优先级在0.5以上（含0.5）为高优先级，在0.2-0.5（含0.2）为中优先级，在0.2以下的为低优先级</t>
+  </si>
+  <si>
+    <t>表中数据统一采用1-9的数字进行填写:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2024,7 +2003,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2154,6 +2133,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2166,10 +2151,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2457,125 +2439,125 @@
   </sheetPr>
   <dimension ref="A1:K104"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="4" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" outlineLevelRow="4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.25" style="4" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="4" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="4" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="8.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.75" style="4" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="9.25" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="7.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="6.44140625" style="4" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="4" customWidth="1"/>
     <col min="10" max="10" width="6" style="4" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="4" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="12.21875" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="5" t="s">
-        <v>442</v>
+        <v>482</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B2" s="16" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C2" s="17"/>
       <c r="D2" s="18"/>
       <c r="E2" s="14"/>
       <c r="F2" s="14"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B3" s="19" t="s">
-        <v>443</v>
+        <v>483</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="21"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="C4" s="22"/>
       <c r="D4" s="23"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B5" s="19" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B6" s="19" t="s">
-        <v>451</v>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="49" t="s">
+        <v>484</v>
       </c>
       <c r="C6" s="24"/>
       <c r="D6" s="23"/>
     </row>
-    <row r="7" spans="1:11" ht="18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="17.399999999999999" x14ac:dyDescent="0.25">
       <c r="B7" s="19" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C7" s="22"/>
       <c r="D7" s="23"/>
       <c r="G7" s="34" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="C8" s="22"/>
       <c r="D8" s="23"/>
       <c r="G8" s="4" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="C9" s="22"/>
       <c r="D9" s="23"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="19" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C11" s="22"/>
       <c r="D11" s="23"/>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="25" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C12" s="26"/>
       <c r="D12" s="27"/>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+    <row r="14" spans="1:11" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45" t="s">
         <v>431</v>
       </c>
-      <c r="B14" s="44"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="35"/>
       <c r="D14" s="36"/>
       <c r="E14" s="36"/>
@@ -2586,11 +2568,11 @@
       <c r="J14" s="35"/>
       <c r="K14" s="37"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="45" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="47" t="s">
         <v>432</v>
       </c>
-      <c r="B15" s="46"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="28" t="s">
         <v>433</v>
       </c>
@@ -2619,15 +2601,15 @@
         <v>441</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="30" t="s">
         <v>242</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
       <c r="G16" s="8"/>
@@ -2636,15 +2618,15 @@
       <c r="J16" s="41"/>
       <c r="K16" s="31"/>
     </row>
-    <row r="17" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="30" t="s">
         <v>257</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
       <c r="G17" s="8"/>
@@ -2653,15 +2635,15 @@
       <c r="J17" s="41"/>
       <c r="K17" s="31"/>
     </row>
-    <row r="18" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="30" t="s">
         <v>259</v>
       </c>
       <c r="B18" s="10" t="s">
         <v>258</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="43"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="8"/>
@@ -2670,17 +2652,17 @@
       <c r="J18" s="41"/>
       <c r="K18" s="31"/>
     </row>
-    <row r="19" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A19" s="30" t="s">
         <v>261</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="C19" s="47">
+      <c r="C19" s="43">
         <v>9</v>
       </c>
-      <c r="D19" s="47">
+      <c r="D19" s="43">
         <v>9</v>
       </c>
       <c r="E19" s="8"/>
@@ -2691,15 +2673,15 @@
       <c r="J19" s="41"/>
       <c r="K19" s="31"/>
     </row>
-    <row r="20" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>263</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -2708,15 +2690,15 @@
       <c r="J20" s="42"/>
       <c r="K20" s="33"/>
     </row>
-    <row r="21" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>268</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>267</v>
       </c>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -2725,15 +2707,15 @@
       <c r="J21" s="42"/>
       <c r="K21" s="33"/>
     </row>
-    <row r="22" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>461</v>
-      </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
+        <v>458</v>
+      </c>
+      <c r="C22" s="44"/>
+      <c r="D22" s="44"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -2742,15 +2724,15 @@
       <c r="J22" s="42"/>
       <c r="K22" s="33"/>
     </row>
-    <row r="23" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>463</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
+        <v>460</v>
+      </c>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
       <c r="G23" s="8"/>
@@ -2759,17 +2741,17 @@
       <c r="J23" s="41"/>
       <c r="K23" s="31"/>
     </row>
-    <row r="24" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A24" s="30" t="s">
         <v>270</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="C24" s="48">
+      <c r="C24" s="44">
         <v>7</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="44">
         <v>8</v>
       </c>
       <c r="E24" s="6"/>
@@ -2780,15 +2762,15 @@
       <c r="J24" s="42"/>
       <c r="K24" s="33"/>
     </row>
-    <row r="25" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A25" s="32" t="s">
         <v>272</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>271</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -2797,15 +2779,15 @@
       <c r="J25" s="42"/>
       <c r="K25" s="33"/>
     </row>
-    <row r="26" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A26" s="32" t="s">
         <v>274</v>
       </c>
       <c r="B26" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="44"/>
       <c r="E26" s="6"/>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -2814,15 +2796,15 @@
       <c r="J26" s="42"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
         <v>276</v>
       </c>
       <c r="B27" s="12" t="s">
         <v>275</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
       <c r="E27" s="6"/>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -2831,15 +2813,15 @@
       <c r="J27" s="42"/>
       <c r="K27" s="33"/>
     </row>
-    <row r="28" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A28" s="32" t="s">
         <v>278</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="8"/>
@@ -2848,15 +2830,15 @@
       <c r="J28" s="41"/>
       <c r="K28" s="31"/>
     </row>
-    <row r="29" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A29" s="30" t="s">
         <v>280</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
@@ -2865,17 +2847,17 @@
       <c r="J29" s="41"/>
       <c r="K29" s="31"/>
     </row>
-    <row r="30" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A30" s="30" t="s">
         <v>282</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C30" s="48">
+      <c r="C30" s="44">
         <v>8</v>
       </c>
-      <c r="D30" s="48">
+      <c r="D30" s="44">
         <v>8</v>
       </c>
       <c r="E30" s="6"/>
@@ -2886,15 +2868,15 @@
       <c r="J30" s="42"/>
       <c r="K30" s="33"/>
     </row>
-    <row r="31" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A31" s="32" t="s">
         <v>284</v>
       </c>
       <c r="B31" s="12" t="s">
         <v>283</v>
       </c>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="44"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
@@ -2903,15 +2885,15 @@
       <c r="J31" s="42"/>
       <c r="K31" s="33"/>
     </row>
-    <row r="32" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A32" s="32" t="s">
         <v>286</v>
       </c>
       <c r="B32" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
@@ -2920,17 +2902,17 @@
       <c r="J32" s="42"/>
       <c r="K32" s="33"/>
     </row>
-    <row r="33" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A33" s="30" t="s">
         <v>288</v>
       </c>
       <c r="B33" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="C33" s="48">
+        <v>456</v>
+      </c>
+      <c r="C33" s="44">
         <v>6</v>
       </c>
-      <c r="D33" s="48">
+      <c r="D33" s="44">
         <v>6</v>
       </c>
       <c r="E33" s="6"/>
@@ -2941,15 +2923,15 @@
       <c r="J33" s="42"/>
       <c r="K33" s="33"/>
     </row>
-    <row r="34" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A34" s="32" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B34" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
+        <v>457</v>
+      </c>
+      <c r="C34" s="44"/>
+      <c r="D34" s="44"/>
       <c r="E34" s="6"/>
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
@@ -2958,15 +2940,15 @@
       <c r="J34" s="42"/>
       <c r="K34" s="33"/>
     </row>
-    <row r="35" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A35" s="32" t="s">
         <v>290</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>287</v>
       </c>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="44"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
@@ -2975,15 +2957,15 @@
       <c r="J35" s="42"/>
       <c r="K35" s="33"/>
     </row>
-    <row r="36" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A36" s="32" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>289</v>
       </c>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="44"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
@@ -2992,17 +2974,17 @@
       <c r="J36" s="42"/>
       <c r="K36" s="33"/>
     </row>
-    <row r="37" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A37" s="30" t="s">
         <v>292</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C37" s="47">
+      <c r="C37" s="43">
         <v>9</v>
       </c>
-      <c r="D37" s="47">
+      <c r="D37" s="43">
         <v>9</v>
       </c>
       <c r="E37" s="8"/>
@@ -3013,15 +2995,15 @@
       <c r="J37" s="41"/>
       <c r="K37" s="31"/>
     </row>
-    <row r="38" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A38" s="32" t="s">
         <v>294</v>
       </c>
       <c r="B38" s="12" t="s">
         <v>293</v>
       </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
       <c r="E38" s="6"/>
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
@@ -3030,15 +3012,15 @@
       <c r="J38" s="42"/>
       <c r="K38" s="33"/>
     </row>
-    <row r="39" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>296</v>
       </c>
       <c r="B39" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="44"/>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
@@ -3047,17 +3029,17 @@
       <c r="J39" s="42"/>
       <c r="K39" s="33"/>
     </row>
-    <row r="40" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A40" s="30" t="s">
         <v>298</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="C40" s="48">
+      <c r="C40" s="44">
         <v>7</v>
       </c>
-      <c r="D40" s="48">
+      <c r="D40" s="44">
         <v>8</v>
       </c>
       <c r="E40" s="6"/>
@@ -3068,15 +3050,15 @@
       <c r="J40" s="42"/>
       <c r="K40" s="33"/>
     </row>
-    <row r="41" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>466</v>
-      </c>
-      <c r="C41" s="48"/>
-      <c r="D41" s="48"/>
+        <v>463</v>
+      </c>
+      <c r="C41" s="44"/>
+      <c r="D41" s="44"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
@@ -3085,15 +3067,15 @@
       <c r="J41" s="42"/>
       <c r="K41" s="33"/>
     </row>
-    <row r="42" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
+        <v>465</v>
+      </c>
+      <c r="C42" s="43"/>
+      <c r="D42" s="43"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
@@ -3102,17 +3084,17 @@
       <c r="J42" s="41"/>
       <c r="K42" s="31"/>
     </row>
-    <row r="43" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A43" s="32" t="s">
         <v>300</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="C43" s="47">
+      <c r="C43" s="43">
         <v>5</v>
       </c>
-      <c r="D43" s="47">
+      <c r="D43" s="43">
         <v>6</v>
       </c>
       <c r="E43" s="8"/>
@@ -3123,15 +3105,15 @@
       <c r="J43" s="41"/>
       <c r="K43" s="31"/>
     </row>
-    <row r="44" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A44" s="30" t="s">
         <v>302</v>
       </c>
       <c r="B44" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="C44" s="48"/>
-      <c r="D44" s="48"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="44"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
@@ -3140,17 +3122,17 @@
       <c r="J44" s="42"/>
       <c r="K44" s="33"/>
     </row>
-    <row r="45" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A45" s="30" t="s">
         <v>304</v>
       </c>
       <c r="B45" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="C45" s="48">
+      <c r="C45" s="44">
         <v>6</v>
       </c>
-      <c r="D45" s="48">
+      <c r="D45" s="44">
         <v>6</v>
       </c>
       <c r="E45" s="6"/>
@@ -3161,15 +3143,15 @@
       <c r="J45" s="42"/>
       <c r="K45" s="33"/>
     </row>
-    <row r="46" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>306</v>
       </c>
       <c r="B46" s="12" t="s">
         <v>305</v>
       </c>
-      <c r="C46" s="48"/>
-      <c r="D46" s="48"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
@@ -3178,15 +3160,15 @@
       <c r="J46" s="42"/>
       <c r="K46" s="33"/>
     </row>
-    <row r="47" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A47" s="32" t="s">
         <v>308</v>
       </c>
       <c r="B47" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="C47" s="48"/>
-      <c r="D47" s="48"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
       <c r="E47" s="6"/>
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
@@ -3195,15 +3177,15 @@
       <c r="J47" s="42"/>
       <c r="K47" s="33"/>
     </row>
-    <row r="48" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A48" s="30" t="s">
         <v>310</v>
       </c>
       <c r="B48" s="38" t="s">
-        <v>459</v>
-      </c>
-      <c r="C48" s="48"/>
-      <c r="D48" s="48"/>
+        <v>456</v>
+      </c>
+      <c r="C48" s="44"/>
+      <c r="D48" s="44"/>
       <c r="E48" s="6"/>
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
@@ -3212,15 +3194,15 @@
       <c r="J48" s="42"/>
       <c r="K48" s="33"/>
     </row>
-    <row r="49" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A49" s="32" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="B49" s="39" t="s">
-        <v>460</v>
-      </c>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
+        <v>457</v>
+      </c>
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
       <c r="E49" s="6"/>
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
@@ -3229,15 +3211,15 @@
       <c r="J49" s="42"/>
       <c r="K49" s="33"/>
     </row>
-    <row r="50" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A50" s="32" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B50" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="C50" s="48"/>
-      <c r="D50" s="48"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
@@ -3246,15 +3228,15 @@
       <c r="J50" s="42"/>
       <c r="K50" s="33"/>
     </row>
-    <row r="51" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A51" s="30" t="s">
         <v>312</v>
       </c>
       <c r="B51" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="C51" s="48"/>
-      <c r="D51" s="48"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
       <c r="E51" s="6"/>
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
@@ -3263,17 +3245,17 @@
       <c r="J51" s="42"/>
       <c r="K51" s="33"/>
     </row>
-    <row r="52" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A52" s="32" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>471</v>
-      </c>
-      <c r="C52" s="47">
+        <v>468</v>
+      </c>
+      <c r="C52" s="43">
         <v>6</v>
       </c>
-      <c r="D52" s="47">
+      <c r="D52" s="43">
         <v>5</v>
       </c>
       <c r="E52" s="8"/>
@@ -3284,15 +3266,15 @@
       <c r="J52" s="41"/>
       <c r="K52" s="31"/>
     </row>
-    <row r="53" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>468</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
+        <v>465</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
@@ -3301,15 +3283,15 @@
       <c r="J53" s="41"/>
       <c r="K53" s="31"/>
     </row>
-    <row r="54" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A54" s="32" t="s">
         <v>314</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="C54" s="48"/>
-      <c r="D54" s="48"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
       <c r="E54" s="6"/>
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
@@ -3318,15 +3300,15 @@
       <c r="J54" s="42"/>
       <c r="K54" s="33"/>
     </row>
-    <row r="55" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A55" s="30" t="s">
         <v>316</v>
       </c>
       <c r="B55" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="C55" s="48"/>
-      <c r="D55" s="48"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
       <c r="E55" s="6"/>
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
@@ -3335,17 +3317,17 @@
       <c r="J55" s="42"/>
       <c r="K55" s="33"/>
     </row>
-    <row r="56" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A56" s="30" t="s">
         <v>317</v>
       </c>
       <c r="B56" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="C56" s="48">
+      <c r="C56" s="44">
         <v>8</v>
       </c>
-      <c r="D56" s="48">
+      <c r="D56" s="44">
         <v>9</v>
       </c>
       <c r="E56" s="6"/>
@@ -3356,15 +3338,15 @@
       <c r="J56" s="42"/>
       <c r="K56" s="33"/>
     </row>
-    <row r="57" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A57" s="32" t="s">
         <v>319</v>
       </c>
       <c r="B57" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="C57" s="48"/>
-      <c r="D57" s="48"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
       <c r="E57" s="6"/>
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
@@ -3373,15 +3355,15 @@
       <c r="J57" s="42"/>
       <c r="K57" s="33"/>
     </row>
-    <row r="58" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A58" s="32" t="s">
         <v>321</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C58" s="48"/>
-      <c r="D58" s="48"/>
+        <v>470</v>
+      </c>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
       <c r="E58" s="6"/>
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
@@ -3390,15 +3372,15 @@
       <c r="J58" s="42"/>
       <c r="K58" s="33"/>
     </row>
-    <row r="59" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>323</v>
       </c>
       <c r="B59" s="12" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="47"/>
-      <c r="D59" s="47"/>
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
@@ -3407,15 +3389,15 @@
       <c r="J59" s="41"/>
       <c r="K59" s="31"/>
     </row>
-    <row r="60" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>325</v>
       </c>
       <c r="B60" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="C60" s="48"/>
-      <c r="D60" s="48"/>
+      <c r="C60" s="44"/>
+      <c r="D60" s="44"/>
       <c r="E60" s="6"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
@@ -3424,15 +3406,15 @@
       <c r="J60" s="42"/>
       <c r="K60" s="33"/>
     </row>
-    <row r="61" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B61" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="C61" s="48"/>
-      <c r="D61" s="48"/>
+      <c r="C61" s="44"/>
+      <c r="D61" s="44"/>
       <c r="E61" s="6"/>
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
@@ -3441,15 +3423,15 @@
       <c r="J61" s="42"/>
       <c r="K61" s="33"/>
     </row>
-    <row r="62" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>476</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="47"/>
+        <v>473</v>
+      </c>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
       <c r="G62" s="8"/>
@@ -3458,15 +3440,15 @@
       <c r="J62" s="41"/>
       <c r="K62" s="31"/>
     </row>
-    <row r="63" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A63" s="32" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>478</v>
-      </c>
-      <c r="C63" s="48"/>
-      <c r="D63" s="48"/>
+        <v>475</v>
+      </c>
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
       <c r="E63" s="6"/>
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
@@ -3475,15 +3457,15 @@
       <c r="J63" s="42"/>
       <c r="K63" s="33"/>
     </row>
-    <row r="64" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A64" s="32" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>480</v>
-      </c>
-      <c r="C64" s="48"/>
-      <c r="D64" s="48"/>
+        <v>477</v>
+      </c>
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
@@ -3492,17 +3474,17 @@
       <c r="J64" s="42"/>
       <c r="K64" s="33"/>
     </row>
-    <row r="65" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A65" s="32" t="s">
         <v>327</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="C65" s="48">
+      <c r="C65" s="44">
         <v>7</v>
       </c>
-      <c r="D65" s="48">
+      <c r="D65" s="44">
         <v>7</v>
       </c>
       <c r="E65" s="6"/>
@@ -3513,17 +3495,17 @@
       <c r="J65" s="42"/>
       <c r="K65" s="33"/>
     </row>
-    <row r="66" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A66" s="30" t="s">
         <v>329</v>
       </c>
       <c r="B66" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="C66" s="48">
+      <c r="C66" s="44">
         <v>7</v>
       </c>
-      <c r="D66" s="48">
+      <c r="D66" s="44">
         <v>8</v>
       </c>
       <c r="E66" s="6"/>
@@ -3534,15 +3516,15 @@
       <c r="J66" s="42"/>
       <c r="K66" s="33"/>
     </row>
-    <row r="67" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A67" s="32" t="s">
         <v>331</v>
       </c>
       <c r="B67" s="12" t="s">
         <v>330</v>
       </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="47"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
@@ -3551,15 +3533,15 @@
       <c r="J67" s="41"/>
       <c r="K67" s="31"/>
     </row>
-    <row r="68" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A68" s="32" t="s">
         <v>333</v>
       </c>
       <c r="B68" s="12" t="s">
         <v>332</v>
       </c>
-      <c r="C68" s="48"/>
-      <c r="D68" s="48"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="44"/>
       <c r="E68" s="6"/>
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
@@ -3568,17 +3550,17 @@
       <c r="J68" s="42"/>
       <c r="K68" s="33"/>
     </row>
-    <row r="69" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A69" s="30" t="s">
         <v>335</v>
       </c>
       <c r="B69" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="C69" s="48">
+      <c r="C69" s="44">
         <v>8</v>
       </c>
-      <c r="D69" s="48">
+      <c r="D69" s="44">
         <v>8</v>
       </c>
       <c r="E69" s="6"/>
@@ -3589,15 +3571,15 @@
       <c r="J69" s="42"/>
       <c r="K69" s="33"/>
     </row>
-    <row r="70" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A70" s="32" t="s">
         <v>337</v>
       </c>
       <c r="B70" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C70" s="47"/>
-      <c r="D70" s="47"/>
+      <c r="C70" s="43"/>
+      <c r="D70" s="43"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
@@ -3606,15 +3588,15 @@
       <c r="J70" s="41"/>
       <c r="K70" s="31"/>
     </row>
-    <row r="71" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A71" s="32" t="s">
         <v>339</v>
       </c>
       <c r="B71" s="12" t="s">
         <v>338</v>
       </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="47"/>
+      <c r="C71" s="43"/>
+      <c r="D71" s="43"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
@@ -3623,15 +3605,15 @@
       <c r="J71" s="41"/>
       <c r="K71" s="31"/>
     </row>
-    <row r="72" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A72" s="32" t="s">
         <v>341</v>
       </c>
       <c r="B72" s="12" t="s">
         <v>340</v>
       </c>
-      <c r="C72" s="48"/>
-      <c r="D72" s="48"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="44"/>
       <c r="E72" s="6"/>
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
@@ -3640,15 +3622,15 @@
       <c r="J72" s="42"/>
       <c r="K72" s="33"/>
     </row>
-    <row r="73" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A73" s="32" t="s">
         <v>343</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C73" s="48"/>
-      <c r="D73" s="48"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44"/>
       <c r="E73" s="6"/>
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
@@ -3657,17 +3639,17 @@
       <c r="J73" s="42"/>
       <c r="K73" s="33"/>
     </row>
-    <row r="74" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A74" s="30" t="s">
         <v>344</v>
       </c>
       <c r="B74" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C74" s="48">
+      <c r="C74" s="44">
         <v>6</v>
       </c>
-      <c r="D74" s="48">
+      <c r="D74" s="44">
         <v>7</v>
       </c>
       <c r="E74" s="6"/>
@@ -3678,15 +3660,15 @@
       <c r="J74" s="42"/>
       <c r="K74" s="33"/>
     </row>
-    <row r="75" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A75" s="32" t="s">
         <v>346</v>
       </c>
       <c r="B75" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="C75" s="48"/>
-      <c r="D75" s="48"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="44"/>
       <c r="E75" s="6"/>
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
@@ -3695,15 +3677,15 @@
       <c r="J75" s="42"/>
       <c r="K75" s="33"/>
     </row>
-    <row r="76" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A76" s="32" t="s">
         <v>348</v>
       </c>
       <c r="B76" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C76" s="47"/>
-      <c r="D76" s="47"/>
+      <c r="C76" s="43"/>
+      <c r="D76" s="43"/>
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
       <c r="G76" s="8"/>
@@ -3712,15 +3694,15 @@
       <c r="J76" s="41"/>
       <c r="K76" s="31"/>
     </row>
-    <row r="77" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A77" s="30" t="s">
         <v>350</v>
       </c>
       <c r="B77" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="C77" s="48"/>
-      <c r="D77" s="48"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="44"/>
       <c r="E77" s="6"/>
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
@@ -3729,17 +3711,17 @@
       <c r="J77" s="42"/>
       <c r="K77" s="33"/>
     </row>
-    <row r="78" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A78" s="30" t="s">
         <v>351</v>
       </c>
       <c r="B78" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="C78" s="48">
+      <c r="C78" s="44">
         <v>8</v>
       </c>
-      <c r="D78" s="48">
+      <c r="D78" s="44">
         <v>8</v>
       </c>
       <c r="E78" s="6"/>
@@ -3750,15 +3732,15 @@
       <c r="J78" s="42"/>
       <c r="K78" s="33"/>
     </row>
-    <row r="79" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>353</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>352</v>
       </c>
-      <c r="C79" s="48"/>
-      <c r="D79" s="48"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="44"/>
       <c r="E79" s="6"/>
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
@@ -3767,15 +3749,15 @@
       <c r="J79" s="42"/>
       <c r="K79" s="33"/>
     </row>
-    <row r="80" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>355</v>
       </c>
       <c r="B80" s="12" t="s">
         <v>354</v>
       </c>
-      <c r="C80" s="47"/>
-      <c r="D80" s="47"/>
+      <c r="C80" s="43"/>
+      <c r="D80" s="43"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
       <c r="G80" s="8"/>
@@ -3784,15 +3766,15 @@
       <c r="J80" s="41"/>
       <c r="K80" s="31"/>
     </row>
-    <row r="81" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A81" s="32" t="s">
         <v>357</v>
       </c>
       <c r="B81" s="12" t="s">
         <v>356</v>
       </c>
-      <c r="C81" s="48"/>
-      <c r="D81" s="48"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44"/>
       <c r="E81" s="6"/>
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
@@ -3801,15 +3783,15 @@
       <c r="J81" s="42"/>
       <c r="K81" s="33"/>
     </row>
-    <row r="82" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A82" s="32" t="s">
         <v>359</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>358</v>
       </c>
-      <c r="C82" s="48"/>
-      <c r="D82" s="48"/>
+      <c r="C82" s="44"/>
+      <c r="D82" s="44"/>
       <c r="E82" s="6"/>
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
@@ -3818,17 +3800,17 @@
       <c r="J82" s="42"/>
       <c r="K82" s="33"/>
     </row>
-    <row r="83" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A83" s="30" t="s">
         <v>361</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C83" s="47">
+      <c r="C83" s="43">
         <v>8</v>
       </c>
-      <c r="D83" s="47">
+      <c r="D83" s="43">
         <v>8</v>
       </c>
       <c r="E83" s="8"/>
@@ -3839,15 +3821,15 @@
       <c r="J83" s="41"/>
       <c r="K83" s="31"/>
     </row>
-    <row r="84" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A84" s="32" t="s">
         <v>362</v>
       </c>
       <c r="B84" s="12" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
+      <c r="C84" s="43"/>
+      <c r="D84" s="43"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
       <c r="G84" s="8"/>
@@ -3856,15 +3838,15 @@
       <c r="J84" s="41"/>
       <c r="K84" s="31"/>
     </row>
-    <row r="85" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A85" s="32" t="s">
         <v>364</v>
       </c>
       <c r="B85" s="12" t="s">
         <v>363</v>
       </c>
-      <c r="C85" s="48"/>
-      <c r="D85" s="48"/>
+      <c r="C85" s="44"/>
+      <c r="D85" s="44"/>
       <c r="E85" s="6"/>
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
@@ -3873,15 +3855,15 @@
       <c r="J85" s="42"/>
       <c r="K85" s="33"/>
     </row>
-    <row r="86" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A86" s="32" t="s">
         <v>365</v>
       </c>
       <c r="B86" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
+      <c r="C86" s="44"/>
+      <c r="D86" s="44"/>
       <c r="E86" s="6"/>
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
@@ -3890,17 +3872,17 @@
       <c r="J86" s="42"/>
       <c r="K86" s="33"/>
     </row>
-    <row r="87" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A87" s="30" t="s">
         <v>367</v>
       </c>
       <c r="B87" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="C87" s="48">
+      <c r="C87" s="44">
         <v>7</v>
       </c>
-      <c r="D87" s="48">
+      <c r="D87" s="44">
         <v>7</v>
       </c>
       <c r="E87" s="6"/>
@@ -3911,15 +3893,15 @@
       <c r="J87" s="42"/>
       <c r="K87" s="33"/>
     </row>
-    <row r="88" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A88" s="32" t="s">
         <v>369</v>
       </c>
       <c r="B88" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="C88" s="47"/>
-      <c r="D88" s="47"/>
+      <c r="C88" s="43"/>
+      <c r="D88" s="43"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
       <c r="G88" s="8"/>
@@ -3928,15 +3910,15 @@
       <c r="J88" s="41"/>
       <c r="K88" s="31"/>
     </row>
-    <row r="89" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A89" s="32" t="s">
         <v>371</v>
       </c>
       <c r="B89" s="12" t="s">
         <v>370</v>
       </c>
-      <c r="C89" s="48"/>
-      <c r="D89" s="48"/>
+      <c r="C89" s="44"/>
+      <c r="D89" s="44"/>
       <c r="E89" s="6"/>
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
@@ -3945,15 +3927,15 @@
       <c r="J89" s="42"/>
       <c r="K89" s="33"/>
     </row>
-    <row r="90" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A90" s="30" t="s">
         <v>373</v>
       </c>
       <c r="B90" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C90" s="48"/>
-      <c r="D90" s="48"/>
+      <c r="C90" s="44"/>
+      <c r="D90" s="44"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
@@ -3962,17 +3944,17 @@
       <c r="J90" s="42"/>
       <c r="K90" s="33"/>
     </row>
-    <row r="91" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A91" s="30" t="s">
         <v>375</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="C91" s="47">
+      <c r="C91" s="43">
         <v>6</v>
       </c>
-      <c r="D91" s="47">
+      <c r="D91" s="43">
         <v>7</v>
       </c>
       <c r="E91" s="8"/>
@@ -3983,15 +3965,15 @@
       <c r="J91" s="41"/>
       <c r="K91" s="31"/>
     </row>
-    <row r="92" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A92" s="32" t="s">
         <v>377</v>
       </c>
       <c r="B92" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C92" s="48"/>
-      <c r="D92" s="48"/>
+      <c r="C92" s="44"/>
+      <c r="D92" s="44"/>
       <c r="E92" s="6"/>
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
@@ -4000,15 +3982,15 @@
       <c r="J92" s="42"/>
       <c r="K92" s="33"/>
     </row>
-    <row r="93" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A93" s="32" t="s">
         <v>379</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>481</v>
-      </c>
-      <c r="C93" s="48"/>
-      <c r="D93" s="48"/>
+        <v>478</v>
+      </c>
+      <c r="C93" s="44"/>
+      <c r="D93" s="44"/>
       <c r="E93" s="6"/>
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
@@ -4017,15 +3999,15 @@
       <c r="J93" s="42"/>
       <c r="K93" s="33"/>
     </row>
-    <row r="94" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" s="5" customFormat="1" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B94" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="C94" s="47"/>
-      <c r="D94" s="47"/>
+      <c r="C94" s="43"/>
+      <c r="D94" s="43"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
       <c r="G94" s="8"/>
@@ -4034,17 +4016,17 @@
       <c r="J94" s="41"/>
       <c r="K94" s="31"/>
     </row>
-    <row r="95" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A95" s="30" t="s">
         <v>381</v>
       </c>
       <c r="B95" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="C95" s="48">
+      <c r="C95" s="44">
         <v>7</v>
       </c>
-      <c r="D95" s="48">
+      <c r="D95" s="44">
         <v>7</v>
       </c>
       <c r="E95" s="6"/>
@@ -4055,15 +4037,15 @@
       <c r="J95" s="42"/>
       <c r="K95" s="33"/>
     </row>
-    <row r="96" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" outlineLevel="4" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>383</v>
       </c>
       <c r="B96" s="12" t="s">
         <v>382</v>
       </c>
-      <c r="C96" s="48"/>
-      <c r="D96" s="48"/>
+      <c r="C96" s="44"/>
+      <c r="D96" s="44"/>
       <c r="E96" s="6"/>
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
@@ -4072,15 +4054,15 @@
       <c r="J96" s="42"/>
       <c r="K96" s="33"/>
     </row>
-    <row r="97" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" s="5" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>385</v>
       </c>
       <c r="B97" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="C97" s="47"/>
-      <c r="D97" s="47"/>
+      <c r="C97" s="43"/>
+      <c r="D97" s="43"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
       <c r="G97" s="8"/>
@@ -4089,17 +4071,17 @@
       <c r="J97" s="41"/>
       <c r="K97" s="31"/>
     </row>
-    <row r="98" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A98" s="30" t="s">
         <v>387</v>
       </c>
       <c r="B98" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="C98" s="47">
+      <c r="C98" s="43">
         <v>7</v>
       </c>
-      <c r="D98" s="47">
+      <c r="D98" s="43">
         <v>8</v>
       </c>
       <c r="E98" s="8"/>
@@ -4110,15 +4092,15 @@
       <c r="J98" s="41"/>
       <c r="K98" s="31"/>
     </row>
-    <row r="99" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A99" s="32" t="s">
         <v>389</v>
       </c>
       <c r="B99" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="C99" s="48"/>
-      <c r="D99" s="48"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
       <c r="E99" s="6"/>
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
@@ -4127,15 +4109,15 @@
       <c r="J99" s="42"/>
       <c r="K99" s="33"/>
     </row>
-    <row r="100" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A100" s="32" t="s">
         <v>390</v>
       </c>
       <c r="B100" s="12" t="s">
         <v>347</v>
       </c>
-      <c r="C100" s="48"/>
-      <c r="D100" s="48"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
       <c r="E100" s="6"/>
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
@@ -4144,17 +4126,17 @@
       <c r="J100" s="42"/>
       <c r="K100" s="33"/>
     </row>
-    <row r="101" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A101" s="30" t="s">
         <v>392</v>
       </c>
       <c r="B101" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="C101" s="47">
+      <c r="C101" s="43">
         <v>6</v>
       </c>
-      <c r="D101" s="47">
+      <c r="D101" s="43">
         <v>5</v>
       </c>
       <c r="E101" s="8"/>
@@ -4165,15 +4147,15 @@
       <c r="J101" s="41"/>
       <c r="K101" s="31"/>
     </row>
-    <row r="102" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A102" s="32" t="s">
         <v>394</v>
       </c>
       <c r="B102" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="C102" s="48"/>
-      <c r="D102" s="48"/>
+      <c r="C102" s="44"/>
+      <c r="D102" s="44"/>
       <c r="E102" s="6"/>
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
@@ -4182,15 +4164,15 @@
       <c r="J102" s="42"/>
       <c r="K102" s="33"/>
     </row>
-    <row r="103" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" outlineLevel="3" x14ac:dyDescent="0.25">
       <c r="A103" s="32" t="s">
         <v>396</v>
       </c>
       <c r="B103" s="12" t="s">
         <v>395</v>
       </c>
-      <c r="C103" s="48"/>
-      <c r="D103" s="48"/>
+      <c r="C103" s="44"/>
+      <c r="D103" s="44"/>
       <c r="E103" s="6"/>
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
@@ -4199,15 +4181,15 @@
       <c r="J103" s="42"/>
       <c r="K103" s="33"/>
     </row>
-    <row r="104" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" s="5" customFormat="1" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A104" s="32" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B104" s="13" t="s">
-        <v>483</v>
-      </c>
-      <c r="C104" s="47"/>
-      <c r="D104" s="47"/>
+        <v>480</v>
+      </c>
+      <c r="C104" s="43"/>
+      <c r="D104" s="43"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
@@ -4235,9 +4217,9 @@
       <selection sqref="A1:IE91"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4956,7 +4938,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="2" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>239</v>
       </c>
@@ -5384,7 +5366,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>239</v>
       </c>
@@ -5812,7 +5794,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>239</v>
       </c>
@@ -6240,7 +6222,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="5" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>239</v>
       </c>
@@ -6668,7 +6650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="6" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>239</v>
       </c>
@@ -7090,7 +7072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -7512,7 +7494,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="8" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -7940,7 +7922,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="9" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>239</v>
       </c>
@@ -8362,7 +8344,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>239</v>
       </c>
@@ -8784,7 +8766,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>239</v>
       </c>
@@ -9206,7 +9188,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>239</v>
       </c>
@@ -9628,7 +9610,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>239</v>
       </c>
@@ -10056,7 +10038,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="14" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>239</v>
       </c>
@@ -10484,7 +10466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>239</v>
       </c>
@@ -10906,7 +10888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="16" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -11328,7 +11310,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="17" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>239</v>
       </c>
@@ -11750,7 +11732,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>239</v>
       </c>
@@ -12172,7 +12154,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="19" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>239</v>
       </c>
@@ -12600,7 +12582,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="20" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>239</v>
       </c>
@@ -13022,7 +13004,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="21" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>239</v>
       </c>
@@ -13444,7 +13426,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>239</v>
       </c>
@@ -13866,7 +13848,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="23" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>239</v>
       </c>
@@ -14288,7 +14270,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="24" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>239</v>
       </c>
@@ -14716,7 +14698,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>239</v>
       </c>
@@ -15144,7 +15126,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="26" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>239</v>
       </c>
@@ -15566,7 +15548,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="27" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>239</v>
       </c>
@@ -15988,7 +15970,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="28" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -16410,7 +16392,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="29" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -16832,7 +16814,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="30" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -17254,7 +17236,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>239</v>
       </c>
@@ -17682,7 +17664,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="32" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -18110,7 +18092,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="33" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -18532,7 +18514,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="34" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -18954,7 +18936,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="35" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>239</v>
       </c>
@@ -19376,7 +19358,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="36" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>239</v>
       </c>
@@ -19798,7 +19780,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="37" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>239</v>
       </c>
@@ -20220,7 +20202,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="38" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>239</v>
       </c>
@@ -20648,7 +20630,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="39" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>239</v>
       </c>
@@ -21070,7 +21052,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>239</v>
       </c>
@@ -21492,7 +21474,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="41" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -21920,7 +21902,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -22342,7 +22324,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="43" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -22764,7 +22746,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="44" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>239</v>
       </c>
@@ -23186,7 +23168,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="45" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>239</v>
       </c>
@@ -23608,7 +23590,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="46" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>239</v>
       </c>
@@ -24036,7 +24018,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="47" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>239</v>
       </c>
@@ -24458,7 +24440,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="48" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>239</v>
       </c>
@@ -24880,7 +24862,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="49" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>239</v>
       </c>
@@ -25308,7 +25290,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="50" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>239</v>
       </c>
@@ -25736,7 +25718,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="51" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>239</v>
       </c>
@@ -26158,7 +26140,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="52" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>239</v>
       </c>
@@ -26580,7 +26562,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="53" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>239</v>
       </c>
@@ -27002,7 +26984,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="54" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -27424,7 +27406,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="55" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>239</v>
       </c>
@@ -27852,7 +27834,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="56" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>239</v>
       </c>
@@ -28274,7 +28256,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="57" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>239</v>
       </c>
@@ -28696,7 +28678,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="58" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>239</v>
       </c>
@@ -29118,7 +29100,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="59" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>239</v>
       </c>
@@ -29546,7 +29528,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="60" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>239</v>
       </c>
@@ -29968,7 +29950,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="61" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>239</v>
       </c>
@@ -30390,7 +30372,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="62" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>239</v>
       </c>
@@ -30818,7 +30800,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="63" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>239</v>
       </c>
@@ -31246,7 +31228,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="64" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>239</v>
       </c>
@@ -31668,7 +31650,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="65" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>239</v>
       </c>
@@ -32090,7 +32072,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="66" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>239</v>
       </c>
@@ -32518,7 +32500,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="67" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>239</v>
       </c>
@@ -32940,7 +32922,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="68" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>239</v>
       </c>
@@ -33362,7 +33344,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="69" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>239</v>
       </c>
@@ -33790,7 +33772,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="70" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>239</v>
       </c>
@@ -34212,7 +34194,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="71" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>239</v>
       </c>
@@ -34634,7 +34616,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="72" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>239</v>
       </c>
@@ -35062,7 +35044,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="73" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>239</v>
       </c>
@@ -35484,7 +35466,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="74" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>239</v>
       </c>
@@ -35906,7 +35888,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="75" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>239</v>
       </c>
@@ -36334,7 +36316,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="76" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>239</v>
       </c>
@@ -36762,7 +36744,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="77" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>239</v>
       </c>
@@ -37184,7 +37166,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="78" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>239</v>
       </c>
@@ -37606,7 +37588,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="79" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>239</v>
       </c>
@@ -38034,7 +38016,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>239</v>
       </c>
@@ -38456,7 +38438,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="81" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>239</v>
       </c>
@@ -38878,7 +38860,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="82" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>239</v>
       </c>
@@ -39306,7 +39288,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="83" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>239</v>
       </c>
@@ -39728,7 +39710,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="84" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>239</v>
       </c>
@@ -40150,7 +40132,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="85" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>239</v>
       </c>
@@ -40578,7 +40560,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="86" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>239</v>
       </c>
@@ -41000,7 +40982,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>239</v>
       </c>
@@ -41428,7 +41410,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>239</v>
       </c>
@@ -41850,7 +41832,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="89" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>239</v>
       </c>
@@ -42272,7 +42254,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="90" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>239</v>
       </c>
@@ -42694,7 +42676,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="91" spans="1:239" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:239" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>239</v>
       </c>
